--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_brokerage_investment_banking.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.05044999999999999</v>
+        <v>-0.1755</v>
       </c>
       <c r="E2">
-        <v>-0.0509</v>
+        <v>-0.221</v>
       </c>
       <c r="G2">
-        <v>0.2825174825174825</v>
+        <v>0.333084762614964</v>
       </c>
       <c r="H2">
-        <v>0.2825174825174825</v>
+        <v>0.333084762614964</v>
       </c>
       <c r="I2">
-        <v>0.234965034965035</v>
+        <v>0.1988565746955009</v>
       </c>
       <c r="J2">
-        <v>0.1906320094999341</v>
+        <v>0.170519512801392</v>
       </c>
       <c r="K2">
-        <v>-0.972</v>
+        <v>-2.917</v>
       </c>
       <c r="L2">
-        <v>-0.135944055944056</v>
+        <v>-0.7250807854834702</v>
       </c>
       <c r="M2">
-        <v>0.428</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N2">
-        <v>0.04713656387665198</v>
+        <v>0.00748663101604278</v>
       </c>
       <c r="O2">
-        <v>-0.4403292181069959</v>
+        <v>-0.02399725745629071</v>
       </c>
       <c r="P2">
-        <v>0.428</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.04713656387665198</v>
+        <v>0.00748663101604278</v>
       </c>
       <c r="R2">
-        <v>-0.4403292181069959</v>
+        <v>-0.02399725745629071</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +639,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.569</v>
+        <v>1.759</v>
       </c>
       <c r="V2">
-        <v>0.1727973568281938</v>
+        <v>0.1881283422459893</v>
       </c>
       <c r="W2">
-        <v>-0.05626185958254268</v>
+        <v>-0.178324764353042</v>
       </c>
       <c r="X2">
-        <v>0.1318706911719439</v>
+        <v>0.1333708057375701</v>
       </c>
       <c r="Y2">
-        <v>-0.1881325507544866</v>
+        <v>-0.3116955700906121</v>
       </c>
       <c r="Z2">
-        <v>0.2966804979253111</v>
+        <v>0.1408071121066816</v>
       </c>
       <c r="AA2">
-        <v>0.06219011509209611</v>
+        <v>0.02983206425367686</v>
       </c>
       <c r="AB2">
-        <v>0.08341283001903257</v>
+        <v>0.0849130204855691</v>
       </c>
       <c r="AC2">
-        <v>-0.02122271492693646</v>
+        <v>-0.05508095623189224</v>
       </c>
       <c r="AD2">
-        <v>18.46</v>
+        <v>19.38</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>18.46</v>
+        <v>19.38</v>
       </c>
       <c r="AG2">
-        <v>16.891</v>
+        <v>17.621</v>
       </c>
       <c r="AH2">
-        <v>0.6702977487291213</v>
+        <v>0.6745562130177515</v>
       </c>
       <c r="AI2">
-        <v>0.5280320366132724</v>
+        <v>0.5899543378995433</v>
       </c>
       <c r="AJ2">
-        <v>0.65037926918486</v>
+        <v>0.6533313559007823</v>
       </c>
       <c r="AK2">
-        <v>0.5058548710730436</v>
+        <v>0.5667556527612492</v>
       </c>
       <c r="AL2">
-        <v>0.902</v>
+        <v>0.624</v>
       </c>
       <c r="AM2">
-        <v>0.753</v>
+        <v>0.579</v>
       </c>
       <c r="AN2">
-        <v>9.184079601990051</v>
+        <v>16.85217391304348</v>
       </c>
       <c r="AO2">
-        <v>1.862527716186253</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AP2">
-        <v>8.403482587064678</v>
+        <v>15.32260869565217</v>
       </c>
       <c r="AQ2">
-        <v>2.231075697211155</v>
+        <v>1.381692573402418</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0561</v>
+        <v>0.023</v>
       </c>
       <c r="E3">
-        <v>-0.0509</v>
+        <v>-0.221</v>
       </c>
       <c r="G3">
-        <v>0.4601366742596811</v>
+        <v>0.3753501400560225</v>
       </c>
       <c r="H3">
-        <v>0.4601366742596811</v>
+        <v>0.3753501400560225</v>
       </c>
       <c r="I3">
-        <v>0.3826879271070615</v>
+        <v>0.2240896358543417</v>
       </c>
       <c r="J3">
-        <v>0.2382773885760949</v>
+        <v>0.1602240896358544</v>
       </c>
       <c r="K3">
-        <v>0.528</v>
+        <v>0.143</v>
       </c>
       <c r="L3">
-        <v>0.1202733485193622</v>
+        <v>0.04005602240896358</v>
       </c>
       <c r="M3">
-        <v>0.428</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="N3">
-        <v>0.1195530726256983</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="O3">
-        <v>0.8106060606060606</v>
+        <v>0.4895104895104896</v>
       </c>
       <c r="P3">
-        <v>0.428</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.1195530726256983</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="R3">
-        <v>0.8106060606060606</v>
+        <v>0.4895104895104896</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.573</v>
+        <v>0.719</v>
       </c>
       <c r="V3">
-        <v>0.1600558659217877</v>
+        <v>0.1556277056277056</v>
       </c>
       <c r="W3">
-        <v>0.1294117647058824</v>
+        <v>0.03666666666666667</v>
       </c>
       <c r="X3">
-        <v>0.124026190237223</v>
+        <v>0.09337797364183388</v>
       </c>
       <c r="Y3">
-        <v>0.005385574468659338</v>
+        <v>-0.05671130697516721</v>
       </c>
       <c r="Z3">
-        <v>0.5219976218787158</v>
+        <v>0.3723792635861062</v>
       </c>
       <c r="AA3">
-        <v>0.1243802301841922</v>
+        <v>0.05966412850735372</v>
       </c>
       <c r="AB3">
-        <v>0.08360469740570144</v>
+        <v>0.07787630175383953</v>
       </c>
       <c r="AC3">
-        <v>0.04077553277849078</v>
+        <v>-0.01821217324648581</v>
       </c>
       <c r="AD3">
-        <v>6.26</v>
+        <v>4.38</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.26</v>
+        <v>4.38</v>
       </c>
       <c r="AG3">
-        <v>5.686999999999999</v>
+        <v>3.661</v>
       </c>
       <c r="AH3">
-        <v>0.6361788617886178</v>
+        <v>0.4866666666666666</v>
       </c>
       <c r="AI3">
-        <v>0.6161417322834646</v>
+        <v>0.4792122538293216</v>
       </c>
       <c r="AJ3">
-        <v>0.6136829610445668</v>
+        <v>0.4420963651732882</v>
       </c>
       <c r="AK3">
-        <v>0.5931991238134974</v>
+        <v>0.4347464671654198</v>
       </c>
       <c r="AL3">
-        <v>0.902</v>
+        <v>0.624</v>
       </c>
       <c r="AM3">
-        <v>0.848</v>
+        <v>0.579</v>
       </c>
       <c r="AN3">
-        <v>3.114427860696518</v>
+        <v>3.808695652173913</v>
       </c>
       <c r="AO3">
-        <v>1.862527716186253</v>
+        <v>1.282051282051282</v>
       </c>
       <c r="AP3">
-        <v>2.829353233830846</v>
+        <v>3.183478260869566</v>
       </c>
       <c r="AQ3">
-        <v>1.981132075471698</v>
+        <v>1.381692573402418</v>
       </c>
     </row>
     <row r="4">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.157</v>
+        <v>-0.374</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>-1.5</v>
+        <v>-3.06</v>
       </c>
       <c r="L4">
-        <v>-0.5434782608695653</v>
+        <v>-6.754966887417218</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -901,64 +901,61 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.996</v>
+        <v>1.04</v>
       </c>
       <c r="V4">
-        <v>0.1810909090909091</v>
+        <v>0.2198731501057082</v>
       </c>
       <c r="W4">
-        <v>-0.2419354838709677</v>
+        <v>-0.3933161953727506</v>
       </c>
       <c r="X4">
-        <v>0.1397151921066648</v>
+        <v>0.1733636378333063</v>
       </c>
       <c r="Y4">
-        <v>-0.3816506759776325</v>
+        <v>-0.566679833206057</v>
       </c>
       <c r="Z4">
-        <v>0.1759082217973231</v>
+        <v>0.0238621997471555</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.0832209626323637</v>
+        <v>0.09194973921729868</v>
       </c>
       <c r="AC4">
-        <v>-0.0832209626323637</v>
+        <v>-0.09194973921729868</v>
       </c>
       <c r="AD4">
-        <v>12.2</v>
+        <v>15</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>12.2</v>
+        <v>15</v>
       </c>
       <c r="AG4">
-        <v>11.204</v>
+        <v>13.96</v>
       </c>
       <c r="AH4">
-        <v>0.6892655367231638</v>
+        <v>0.7602635580334516</v>
       </c>
       <c r="AI4">
-        <v>0.4919354838709677</v>
+        <v>0.6326444538169549</v>
       </c>
       <c r="AJ4">
-        <v>0.6707375478927202</v>
+        <v>0.7469234884965222</v>
       </c>
       <c r="AK4">
-        <v>0.4706771971097294</v>
+        <v>0.615791795324217</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.095</v>
-      </c>
-      <c r="AQ4">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
